--- a/docs/effort-estimation.xlsx
+++ b/docs/effort-estimation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htblaleonding-my.sharepoint.com/personal/a_wimmer2_students_htl-leonding_ac_at/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\Documents\HTL\3IHIF\WMC\room-food\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{5A952E30-8E35-4C21-872E-941690442449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C322D9-B91E-42B7-BF10-58CDCA4B03DB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57622D-789C-46DE-88D2-B8A1A528ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CD19CBD-F40D-4B07-8DFB-09D007D4B786}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Calendar design for room view</t>
+  </si>
+  <si>
+    <t>Set up project structure</t>
+  </si>
+  <si>
+    <t>Set up database</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,10 +191,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -190,7 +205,17 @@
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -237,32 +262,40 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF54A41-9CC2-4AA2-8F76-5A18AE412277}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF54A41-9CC2-4AA2-8F76-5A18AE412277}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="13">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD104E6C-3FB2-4028-B39E-1642A4E103F5}" name="Task" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{660AA389-84BF-4073-B3DF-146936FB4E81}" name="Orig. Est." dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D378DE41-A349-4E73-9DC6-E2AD96D7D4A4}" name="Cur. Est." dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{946D4402-72BC-47FB-BC27-9032EAD1C753}" name="Effort" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{AC96E08D-31C6-4AAC-9707-12BB2EE31872}" name="Remain" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{1EC34EF9-51C7-4321-9E8F-6F0F5D21B221}" name="Responsible" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{BD104E6C-3FB2-4028-B39E-1642A4E103F5}" name="Task" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{660AA389-84BF-4073-B3DF-146936FB4E81}" name="Orig. Est." dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D378DE41-A349-4E73-9DC6-E2AD96D7D4A4}" name="Cur. Est." dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{946D4402-72BC-47FB-BC27-9032EAD1C753}" name="Effort" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{AC96E08D-31C6-4AAC-9707-12BB2EE31872}" name="Remain" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1EC34EF9-51C7-4321-9E8F-6F0F5D21B221}" name="Responsible" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B86BA106-B777-4F33-87EE-B404BD463F96}" name="Table2" displayName="Table2" ref="H1:J3" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B86BA106-B777-4F33-87EE-B404BD463F96}" name="Table2" displayName="Table2" ref="H1:J3" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FFB5BE72-43DE-47B5-977E-AEBEB8293E0A}" name="Product Owner" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9114A611-9993-47EF-A53E-7D29A6F4A229}" name="Scrum Master" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C21A4105-83F6-4202-B883-337A0BCDDCFE}" name="Team Members" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FFB5BE72-43DE-47B5-977E-AEBEB8293E0A}" name="Product Owner" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9114A611-9993-47EF-A53E-7D29A6F4A229}" name="Scrum Master" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C21A4105-83F6-4202-B883-337A0BCDDCFE}" name="Team Members" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2AD5516C-E55D-4EA5-B211-AE20A2CFBCC4}" name="Table14" displayName="Table14" ref="A13:B17" totalsRowShown="0" headerRowDxfId="2">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{826D21A2-3DD6-443C-A7D9-4D7D69D4D081}" name="User" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{952CF9E3-2B94-4AAB-A033-27B3D19CDA85}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -583,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3457C809-4925-4E43-BBA5-39B0B2941B89}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -713,14 +746,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5">
         <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -734,14 +767,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
       <c r="E6" s="5">
         <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -755,49 +788,155 @@
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="5">
         <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7">
-        <f>SUM(B2:B7)</f>
+      <c r="B11" s="9">
+        <f>SUM(B2:B10)</f>
         <v>22</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:F8" si="0">SUM(C2:C7)</f>
-        <v>28</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:E11" si="0">SUM(C2:C10)</f>
+        <v>29</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <f>SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <f>SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/effort-estimation.xlsx
+++ b/docs/effort-estimation.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -79,13 +79,13 @@
     <t xml:space="preserve">Frontend and routes for room view</t>
   </si>
   <si>
-    <t xml:space="preserve">Calendar design for room view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Set up project structure</t>
   </si>
   <si>
     <t xml:space="preserve">Set up database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure server</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -554,7 +554,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,14 +635,14 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -661,10 +661,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>6</v>
@@ -681,14 +681,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -723,20 +723,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -747,14 +747,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,17 +786,17 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,20 +804,20 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="n">
-        <f aca="false">SUM(B2:B10)</f>
+        <f aca="false">SUM(B2:B9)</f>
         <v>22</v>
       </c>
       <c r="C11" s="8" t="n">
-        <f aca="false">SUM(C2:C10)</f>
-        <v>28</v>
+        <f aca="false">SUM(C2:C9)</f>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="n">
-        <f aca="false">SUM(D2:D10)</f>
-        <v>10</v>
+        <f aca="false">SUM(D2:D9)</f>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="n">
-        <f aca="false">SUM(E2:E10)</f>
-        <v>20</v>
+        <f aca="false">SUM(E2:E9)</f>
+        <v>16</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>23</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="B14" s="4" t="n">
         <f aca="false">SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +846,7 @@
       </c>
       <c r="B15" s="4" t="n">
         <f aca="false">SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +855,7 @@
       </c>
       <c r="B16" s="4" t="n">
         <f aca="false">SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +864,7 @@
       </c>
       <c r="B17" s="4" t="n">
         <f aca="false">SUMIF($F$2:$F$10,Table14[[#This Row],[User]],$C$2:$C$10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/effort-estimation.xlsx
+++ b/docs/effort-estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\Documents\HTL\3IHIF\WMC\room-food\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB0A08-1088-4B44-8DB0-5CD510084A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78253719-4C00-4EBA-A98C-09C6E7FC5430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CD19CBD-F40D-4B07-8DFB-09D007D4B786}"/>
   </bookViews>
@@ -129,6 +129,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +208,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3457C809-4925-4E43-BBA5-39B0B2941B89}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,15 +904,15 @@
       <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
+      <c r="C12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.5</v>
       </c>
       <c r="E12" s="4">
         <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
@@ -919,15 +925,15 @@
       <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
+      <c r="C13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.5</v>
       </c>
       <c r="E13" s="4">
         <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>13</v>
@@ -940,15 +946,15 @@
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
+      <c r="C14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.5</v>
       </c>
       <c r="E14" s="4">
         <f>Table1[[#This Row],[Cur. Est.]]-Table1[[#This Row],[Effort]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>14</v>
@@ -992,7 +998,7 @@
       </c>
       <c r="B18" s="4">
         <f>SUMIF($F$2:$F$14,Table14[[#This Row],[User]],$C$2:$C$14)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1001,7 +1007,7 @@
       </c>
       <c r="B19" s="4">
         <f>SUMIF($F$2:$F$14,Table14[[#This Row],[User]],$C$2:$C$14)</f>
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
